--- a/nmadb/479887.xlsx
+++ b/nmadb/479887.xlsx
@@ -1,6 +1,465 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stagiaire_2018</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stagiaire_2018:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SMS:
+Changes made based on data in Table 1.  Originally extracted data matches better with what is in Fig 2/3.  Not sure which is the correct data - they should be the same?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Harmful</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Outcome: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Overall mortality  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>The following studies were included in both the MA and NMA</t>
+  </si>
+  <si>
+    <t>Coombers</t>
+  </si>
+  <si>
+    <t>Treatments included in NMA and MA</t>
+  </si>
+  <si>
+    <t>Control (Surgery)</t>
+  </si>
+  <si>
+    <t>Hallissey</t>
+  </si>
+  <si>
+    <t>FU + MMC + Anthracyclines (Surgery+FAM)</t>
+  </si>
+  <si>
+    <t>FD (fluorouracil derivative) + MMC (Surgery+FM)</t>
+  </si>
+  <si>
+    <t>Lise</t>
+  </si>
+  <si>
+    <t>Tegafur (Surgery+Tegafur)</t>
+  </si>
+  <si>
+    <t>Mitomycin c (Surgery+MMC)</t>
+  </si>
+  <si>
+    <t>MacDonald</t>
+  </si>
+  <si>
+    <t>Treatments included in MA only</t>
+  </si>
+  <si>
+    <t>FU + BCNU</t>
+  </si>
+  <si>
+    <t>Popiela</t>
+  </si>
+  <si>
+    <t>FU + MCCNU</t>
+  </si>
+  <si>
+    <t>FU + Cisplatin</t>
+  </si>
+  <si>
+    <t>Tsavaris</t>
+  </si>
+  <si>
+    <t>FU + Anthracyclines + others</t>
+  </si>
+  <si>
+    <t>FU + MMC + AraC</t>
+  </si>
+  <si>
+    <t>Cirera</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Nakajima</t>
+  </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Authors performed Meta-analysis to determine which treatments were more effective compared to control and then compared the four effective treatments+control in network meta-analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>Sasako</t>
+  </si>
+  <si>
+    <t>Estape</t>
+  </si>
+  <si>
+    <t>Grau</t>
+  </si>
+  <si>
+    <t>The following studies were only included in the meta-analysis</t>
+  </si>
+  <si>
+    <t>Lawton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlag </t>
+  </si>
+  <si>
+    <t>Bonfanti</t>
+  </si>
+  <si>
+    <t>Stablein</t>
+  </si>
+  <si>
+    <t>Engstorm</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Bouche</t>
+  </si>
+  <si>
+    <t>Chipponi</t>
+  </si>
+  <si>
+    <t>Miyashiro</t>
+  </si>
+  <si>
+    <t>Bajetta</t>
+  </si>
+  <si>
+    <t>De Vita</t>
+  </si>
+  <si>
+    <t>Di Costanzo</t>
+  </si>
+  <si>
+    <t>Krook</t>
+  </si>
+  <si>
+    <t>Neri</t>
+  </si>
+  <si>
+    <t>2006a</t>
+  </si>
+  <si>
+    <t>Nitti</t>
+  </si>
+  <si>
+    <t>2006b</t>
+  </si>
+  <si>
+    <t>Nashimoto</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+  </fonts>
+  <fills count="5">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5334000" y="5143500"/>
+          <a:ext cx="4676775" cy="6581775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +533,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +567,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +601,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +736,2349 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="23">
+        <v>1990</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>148</v>
+      </c>
+      <c r="F3" s="21">
+        <v>123</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>133</v>
+      </c>
+      <c r="F4" s="21">
+        <v>101</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="23">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>145</v>
+      </c>
+      <c r="F5" s="5">
+        <v>110</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20">
+        <v>2</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>138</v>
+      </c>
+      <c r="F6" s="5">
+        <v>101</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20">
+        <v>3</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="23">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>159</v>
+      </c>
+      <c r="F7" s="5">
+        <v>99</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20">
+        <v>4</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>155</v>
+      </c>
+      <c r="F8" s="5">
+        <v>88</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20">
+        <v>5</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="23">
+        <v>1995</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
+      <c r="F9" s="5">
+        <v>68</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>93</v>
+      </c>
+      <c r="F10" s="5">
+        <v>59</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20">
+        <v>6</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="23">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5">
+        <v>47</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20">
+        <v>7</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5">
+        <v>42</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20">
+        <v>8</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="23">
+        <v>1994</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5">
+        <v>34</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <v>9</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5">
+        <v>27</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
+        <v>10</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="23">
+        <v>1999</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>72</v>
+      </c>
+      <c r="F15" s="21">
+        <v>44</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>76</v>
+      </c>
+      <c r="F16" s="5">
+        <v>33</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="23">
+        <v>1992</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>94</v>
+      </c>
+      <c r="F17" s="5">
+        <v>71</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>77</v>
+      </c>
+      <c r="F18" s="5">
+        <v>54</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="23">
+        <v>1999</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>285</v>
+      </c>
+      <c r="F19" s="5">
+        <v>49</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>288</v>
+      </c>
+      <c r="F20" s="5">
+        <v>41</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="23">
+        <v>2007</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>95</v>
+      </c>
+      <c r="F21" s="5">
+        <v>30</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>95</v>
+      </c>
+      <c r="F22" s="5">
+        <v>18</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="23">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>530</v>
+      </c>
+      <c r="F23" s="5">
+        <v>206</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>529</v>
+      </c>
+      <c r="F24" s="5">
+        <v>149</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="23">
+        <v>1991</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>37</v>
+      </c>
+      <c r="F25" s="5">
+        <v>31</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>33</v>
+      </c>
+      <c r="F26" s="5">
+        <v>16</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="23">
+        <v>1993</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>66</v>
+      </c>
+      <c r="F27" s="5">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5">
+        <v>40</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="23">
+        <v>1981</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="5">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="21">
+        <v>12</v>
+      </c>
+      <c r="F30" s="21">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6</v>
+      </c>
+      <c r="E31" s="21">
+        <v>13</v>
+      </c>
+      <c r="F31" s="21">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="23">
+        <v>1987</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>53</v>
+      </c>
+      <c r="F32" s="21">
+        <v>28</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1"/>
+      <c r="B33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6</v>
+      </c>
+      <c r="E33" s="21">
+        <v>42</v>
+      </c>
+      <c r="F33" s="21">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="23">
+        <v>1988</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5">
+        <v>16</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>69</v>
+      </c>
+      <c r="F34" s="21">
+        <v>56</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1"/>
+      <c r="B35" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>16</v>
+      </c>
+      <c r="D35" s="5">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5">
+        <v>75</v>
+      </c>
+      <c r="F35" s="21">
+        <v>63</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="23">
+        <v>1982</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>71</v>
+      </c>
+      <c r="F36" s="5">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1"/>
+      <c r="B37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="5">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5">
+        <v>71</v>
+      </c>
+      <c r="F37" s="5">
+        <v>29</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="23">
+        <v>1985</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="5">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>89</v>
+      </c>
+      <c r="F38" s="5">
+        <v>51</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="B39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="5">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5">
+        <v>91</v>
+      </c>
+      <c r="F39" s="5">
+        <v>57</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="23">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5">
+        <v>19</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>156</v>
+      </c>
+      <c r="F40" s="5">
+        <v>117</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1"/>
+      <c r="B41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5">
+        <v>19</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5">
+        <v>156</v>
+      </c>
+      <c r="F41" s="5">
+        <v>121</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="23">
+        <v>2005</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="5">
+        <v>20</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>133</v>
+      </c>
+      <c r="F42" s="5">
+        <v>77</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1"/>
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5">
+        <v>20</v>
+      </c>
+      <c r="D43" s="5">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5">
+        <v>127</v>
+      </c>
+      <c r="F43" s="5">
+        <v>68</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="23">
+        <v>2004</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <v>21</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>104</v>
+      </c>
+      <c r="F44" s="5">
+        <v>63</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1"/>
+      <c r="B45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="5">
+        <v>21</v>
+      </c>
+      <c r="D45" s="5">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5">
+        <v>101</v>
+      </c>
+      <c r="F45" s="5">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="23">
+        <v>2011</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5">
+        <v>22</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>132</v>
+      </c>
+      <c r="F46" s="5">
+        <v>52</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1"/>
+      <c r="B47" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5">
+        <v>22</v>
+      </c>
+      <c r="D47" s="5">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5">
+        <v>132</v>
+      </c>
+      <c r="F47" s="5">
+        <v>50</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="23">
+        <v>2002</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="5">
+        <v>23</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>137</v>
+      </c>
+      <c r="F48" s="5">
+        <v>71</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5">
+        <v>23</v>
+      </c>
+      <c r="D49" s="5">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5">
+        <v>137</v>
+      </c>
+      <c r="F49" s="5">
+        <v>66</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="23">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="5">
+        <v>24</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>113</v>
+      </c>
+      <c r="F50" s="5">
+        <v>64</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1"/>
+      <c r="B51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5">
+        <v>24</v>
+      </c>
+      <c r="D51" s="5">
+        <v>9</v>
+      </c>
+      <c r="E51" s="5">
+        <v>112</v>
+      </c>
+      <c r="F51" s="5">
+        <v>58</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="23">
+        <v>2008</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5">
+        <v>25</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>128</v>
+      </c>
+      <c r="F52" s="5">
+        <v>70</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="5">
+        <v>25</v>
+      </c>
+      <c r="D53" s="5">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5">
+        <v>130</v>
+      </c>
+      <c r="F53" s="5">
+        <v>69</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="19"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="23">
+        <v>1991</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="5">
+        <v>26</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>64</v>
+      </c>
+      <c r="F54" s="21">
+        <v>43</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="19"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="5">
+        <v>26</v>
+      </c>
+      <c r="D55" s="5">
+        <v>9</v>
+      </c>
+      <c r="E55" s="5">
+        <v>61</v>
+      </c>
+      <c r="F55" s="5">
+        <v>41</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="23">
+        <v>2001</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5">
+        <v>27</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>68</v>
+      </c>
+      <c r="F56" s="5">
+        <v>59</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5">
+        <v>27</v>
+      </c>
+      <c r="D57" s="5">
+        <v>9</v>
+      </c>
+      <c r="E57" s="5">
+        <v>69</v>
+      </c>
+      <c r="F57" s="5">
+        <v>48</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="19"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="5">
+        <v>28</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>103</v>
+      </c>
+      <c r="F58" s="5">
+        <v>49</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="19"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="5">
+        <v>28</v>
+      </c>
+      <c r="D59" s="5">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5">
+        <v>103</v>
+      </c>
+      <c r="F59" s="5">
+        <v>54</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="19"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="5">
+        <v>29</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>100</v>
+      </c>
+      <c r="F60" s="5">
+        <v>64</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="19"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1"/>
+      <c r="B61" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="5">
+        <v>29</v>
+      </c>
+      <c r="D61" s="5">
+        <v>9</v>
+      </c>
+      <c r="E61" s="5">
+        <v>91</v>
+      </c>
+      <c r="F61" s="5">
+        <v>63</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="23">
+        <v>1984</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="5">
+        <v>30</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>124</v>
+      </c>
+      <c r="F62" s="5">
+        <v>71</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="5">
+        <v>30</v>
+      </c>
+      <c r="D63" s="5">
+        <v>10</v>
+      </c>
+      <c r="E63" s="5">
+        <v>128</v>
+      </c>
+      <c r="F63" s="5">
+        <v>11</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="23">
+        <v>2003</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="5">
+        <v>31</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="21">
+        <v>124</v>
+      </c>
+      <c r="F64" s="21">
+        <v>23</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="5">
+        <v>31</v>
+      </c>
+      <c r="D65" s="5">
+        <v>10</v>
+      </c>
+      <c r="E65" s="21">
+        <v>128</v>
+      </c>
+      <c r="F65" s="21">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="9"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="9"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="9"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="9"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="9"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="9"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="9"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="9"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="9"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="9"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="9"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="9"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="9"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="9"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="9"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H22:J26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmadb/479887.xlsx
+++ b/nmadb/479887.xlsx
@@ -7,47 +7,11 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="MA&amp;NMA" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stagiaire_2018</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Stagiaire_2018:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-SMS:
-Changes made based on data in Table 1.  Originally extracted data matches better with what is in Fig 2/3.  Not sure which is the correct data - they should be the same?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,9 +54,6 @@
     <t xml:space="preserve">Comment </t>
   </si>
   <si>
-    <t>The following studies were included in both the MA and NMA</t>
-  </si>
-  <si>
     <t>Coombers</t>
   </si>
   <si>
@@ -178,9 +139,6 @@
     <t>Grau</t>
   </si>
   <si>
-    <t>The following studies were only included in the meta-analysis</t>
-  </si>
-  <si>
     <t>Lawton</t>
   </si>
   <si>
@@ -233,13 +191,19 @@
   </si>
   <si>
     <t>Nashimoto</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MA&amp;NMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,19 +246,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -335,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -381,22 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,16 +352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -438,7 +379,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5334000" y="5143500"/>
+          <a:off x="5305425" y="5829300"/>
           <a:ext cx="4676775" cy="6581775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -743,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -785,15 +726,27 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="23">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>148</v>
+      </c>
+      <c r="F2" s="21">
+        <v>123</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -802,27 +755,25 @@
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="23">
-        <v>1990</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F3" s="21">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="20"/>
@@ -831,21 +782,23 @@
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
+      <c r="A4" s="23">
+        <v>1994</v>
+      </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>133</v>
-      </c>
-      <c r="F4" s="21">
-        <v>101</v>
+        <v>145</v>
+      </c>
+      <c r="F4" s="5">
+        <v>110</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="20"/>
@@ -853,30 +806,28 @@
         <v>1</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="23">
-        <v>1994</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F5" s="5">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="20"/>
@@ -884,28 +835,30 @@
         <v>2</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
+      <c r="A6" s="23">
+        <v>1995</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>159</v>
       </c>
       <c r="F6" s="5">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="20"/>
@@ -913,30 +866,28 @@
         <v>3</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="23">
-        <v>1995</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="21">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F7" s="5">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="20"/>
@@ -944,28 +895,30 @@
         <v>4</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
+      <c r="A8" s="23">
+        <v>1995</v>
+      </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="21">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
       </c>
       <c r="F8" s="5">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="20"/>
@@ -973,34 +926,32 @@
         <v>5</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="23">
-        <v>1995</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F9" s="5">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="29" t="s">
-        <v>20</v>
+      <c r="H9" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -1009,21 +960,23 @@
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
+      <c r="A10" s="23">
+        <v>2004</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="20"/>
@@ -1031,30 +984,28 @@
         <v>6</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="23">
-        <v>2004</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="20"/>
@@ -1062,28 +1013,30 @@
         <v>7</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
+      <c r="A12" s="23">
+        <v>1994</v>
+      </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="20"/>
@@ -1091,30 +1044,28 @@
         <v>8</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="23">
-        <v>1994</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
         <v>42</v>
       </c>
       <c r="F13" s="5">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="20"/>
@@ -1122,28 +1073,30 @@
         <v>9</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
+      <c r="A14" s="23">
+        <v>1999</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
-        <v>42</v>
-      </c>
-      <c r="F14" s="5">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="F14" s="21">
+        <v>44</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="20"/>
@@ -1151,30 +1104,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="23">
-        <v>1999</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5">
         <v>7</v>
       </c>
       <c r="D15" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="5">
-        <v>72</v>
-      </c>
-      <c r="F15" s="21">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="F15" s="5">
+        <v>33</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -1185,21 +1136,23 @@
       <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
+      <c r="A16" s="23">
+        <v>1992</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F16" s="5">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -1210,23 +1163,21 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="23">
-        <v>1992</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
         <v>8</v>
       </c>
       <c r="D17" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1237,21 +1188,23 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
+      <c r="A18" s="23">
+        <v>1999</v>
+      </c>
       <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="F18" s="5">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -1262,23 +1215,21 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="23">
-        <v>1999</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5">
         <v>9</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="5">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F19" s="5">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -1289,21 +1240,23 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
+      <c r="A20" s="23">
+        <v>2007</v>
+      </c>
       <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>95</v>
+      </c>
+      <c r="F20" s="5">
         <v>30</v>
-      </c>
-      <c r="C20" s="5">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5">
-        <v>288</v>
-      </c>
-      <c r="F20" s="5">
-        <v>41</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -1314,23 +1267,21 @@
       <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="23">
-        <v>2007</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5">
         <v>10</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="5">
         <v>95</v>
       </c>
       <c r="F21" s="5">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -1341,154 +1292,154 @@
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1"/>
+      <c r="A22" s="23">
+        <v>2011</v>
+      </c>
       <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>530</v>
+      </c>
+      <c r="F22" s="5">
+        <v>206</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5">
-        <v>95</v>
-      </c>
-      <c r="F22" s="5">
-        <v>18</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="23">
-        <v>2011</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5">
         <v>11</v>
       </c>
       <c r="D23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="5">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F23" s="5">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
+      <c r="A24" s="23">
+        <v>1991</v>
+      </c>
       <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>529</v>
+        <v>37</v>
       </c>
       <c r="F24" s="5">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="23">
-        <v>1991</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5">
         <v>12</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1"/>
+      <c r="A26" s="23">
+        <v>1993</v>
+      </c>
       <c r="B26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F26" s="5">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="23">
-        <v>1993</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5">
         <v>13</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="5">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="17"/>
@@ -1499,23 +1450,27 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
+      <c r="A28" s="23">
+        <v>1981</v>
+      </c>
       <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="5">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5">
-        <v>68</v>
-      </c>
-      <c r="F28" s="5">
-        <v>40</v>
-      </c>
-      <c r="G28" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="21">
+        <v>12</v>
+      </c>
+      <c r="F28" s="21">
+        <v>10</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -1524,14 +1479,22 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6</v>
+      </c>
+      <c r="E29" s="21">
+        <v>13</v>
+      </c>
+      <c r="F29" s="21">
+        <v>11</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1542,22 +1505,22 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="23">
-        <v>1981</v>
+        <v>1987</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
       <c r="E30" s="21">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F30" s="21">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1569,20 +1532,20 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
-        <v>36</v>
+      <c r="B31" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5">
         <v>6</v>
       </c>
       <c r="E31" s="21">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F31" s="21">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1594,22 +1557,22 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="23">
-        <v>1987</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>37</v>
+        <v>1988</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C32" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="21">
-        <v>53</v>
+      <c r="E32" s="5">
+        <v>69</v>
       </c>
       <c r="F32" s="21">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1622,23 +1585,23 @@
     <row r="33" spans="1:13">
       <c r="A33" s="1"/>
       <c r="B33" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5">
-        <v>6</v>
-      </c>
-      <c r="E33" s="21">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
+        <v>75</v>
       </c>
       <c r="F33" s="21">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1646,22 +1609,22 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="23">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="5">
-        <v>69</v>
-      </c>
-      <c r="F34" s="21">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="F34" s="5">
+        <v>40</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="10"/>
@@ -1673,20 +1636,20 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1"/>
-      <c r="B35" s="23" t="s">
-        <v>38</v>
+      <c r="B35" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="5">
         <v>7</v>
       </c>
       <c r="E35" s="5">
-        <v>75</v>
-      </c>
-      <c r="F35" s="21">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="F35" s="5">
+        <v>29</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="10"/>
@@ -1698,22 +1661,22 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="23">
-        <v>1982</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>39</v>
+        <v>1985</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="5">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F36" s="5">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="10"/>
@@ -1726,19 +1689,19 @@
     <row r="37" spans="1:13">
       <c r="A37" s="1"/>
       <c r="B37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="5">
         <v>7</v>
       </c>
       <c r="E37" s="5">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F37" s="5">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="10"/>
@@ -1750,22 +1713,22 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="23">
-        <v>1985</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>1983</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C38" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
       <c r="E38" s="5">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F38" s="5">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="10"/>
@@ -1777,20 +1740,20 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1"/>
-      <c r="B39" s="9" t="s">
-        <v>40</v>
+      <c r="B39" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="C39" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5">
         <v>7</v>
       </c>
       <c r="E39" s="5">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="F39" s="5">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="10"/>
@@ -1802,22 +1765,22 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="23">
-        <v>1983</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>41</v>
+        <v>2005</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C40" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
       </c>
       <c r="E40" s="5">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F40" s="5">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="10"/>
@@ -1829,20 +1792,20 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1"/>
-      <c r="B41" s="23" t="s">
-        <v>41</v>
+      <c r="B41" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="5">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="F41" s="5">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="10"/>
@@ -1854,22 +1817,22 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="23">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="5">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F42" s="5">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="10"/>
@@ -1882,150 +1845,150 @@
     <row r="43" spans="1:13">
       <c r="A43" s="1"/>
       <c r="B43" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43" s="5">
         <v>8</v>
       </c>
       <c r="E43" s="5">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="F43" s="5">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="23">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" s="5">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F44" s="5">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="1"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1"/>
       <c r="B45" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D45" s="5">
         <v>8</v>
       </c>
       <c r="E45" s="5">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="F45" s="5">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="23">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" s="5">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F46" s="5">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="11"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1"/>
       <c r="B47" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="5">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F47" s="5">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="23">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" s="5">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F48" s="5">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2038,123 +2001,123 @@
     <row r="49" spans="1:13">
       <c r="A49" s="1"/>
       <c r="B49" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D49" s="5">
         <v>9</v>
       </c>
       <c r="E49" s="5">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F49" s="5">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="23">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
       </c>
       <c r="E50" s="5">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F50" s="5">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1"/>
       <c r="B51" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="5">
         <v>9</v>
       </c>
       <c r="E51" s="5">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F51" s="5">
-        <v>58</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="G51" s="17"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="16"/>
       <c r="K51" s="17"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="23">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
       <c r="E52" s="5">
-        <v>128</v>
-      </c>
-      <c r="F52" s="5">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="F52" s="21">
+        <v>43</v>
       </c>
       <c r="G52" s="17"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
+      <c r="M52" s="19"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1"/>
       <c r="B53" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="5">
         <v>9</v>
       </c>
       <c r="E53" s="5">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="F53" s="5">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -2166,82 +2129,82 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="23">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" s="5">
-        <v>64</v>
-      </c>
-      <c r="F54" s="21">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="F54" s="5">
+        <v>59</v>
       </c>
       <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="17"/>
-      <c r="K54" s="19"/>
+      <c r="K54" s="17"/>
       <c r="L54" s="17"/>
-      <c r="M54" s="19"/>
+      <c r="M54" s="17"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1"/>
       <c r="B55" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" s="5">
         <v>9</v>
       </c>
       <c r="E55" s="5">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F55" s="5">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="23">
-        <v>2001</v>
+      <c r="A56" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F56" s="5">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
+      <c r="M56" s="19"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1"/>
@@ -2249,16 +2212,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="5">
         <v>9</v>
       </c>
       <c r="E57" s="5">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="F57" s="5">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -2273,19 +2236,19 @@
         <v>50</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C58" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
       </c>
       <c r="E58" s="5">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F58" s="5">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -2298,19 +2261,19 @@
     <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="B59" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C59" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" s="5">
         <v>9</v>
       </c>
       <c r="E59" s="5">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F59" s="5">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -2321,48 +2284,48 @@
       <c r="M59" s="19"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="23" t="s">
-        <v>52</v>
+      <c r="A60" s="23">
+        <v>1984</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C60" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
       </c>
       <c r="E60" s="5">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F60" s="5">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="19"/>
+      <c r="K60" s="17"/>
       <c r="L60" s="17"/>
-      <c r="M60" s="19"/>
+      <c r="M60" s="17"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1"/>
       <c r="B61" s="9" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C61" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" s="5">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F61" s="5">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -2374,22 +2337,22 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="23">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C62" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="21">
         <v>124</v>
       </c>
-      <c r="F62" s="5">
-        <v>71</v>
+      <c r="F62" s="21">
+        <v>23</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -2400,82 +2363,53 @@
       <c r="M62" s="17"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
       <c r="B63" s="9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C63" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" s="5">
         <v>10</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="21">
         <v>128</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="21">
         <v>11</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
+      <c r="K63" s="10"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="23">
-        <v>2003</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="5">
-        <v>31</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="21">
-        <v>124</v>
-      </c>
-      <c r="F64" s="21">
-        <v>23</v>
-      </c>
-      <c r="G64" s="17"/>
+      <c r="G64" s="1"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-    </row>
-    <row r="65" spans="2:13">
-      <c r="B65" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="5">
-        <v>31</v>
-      </c>
-      <c r="D65" s="5">
-        <v>10</v>
-      </c>
-      <c r="E65" s="21">
-        <v>128</v>
-      </c>
-      <c r="F65" s="21">
-        <v>11</v>
-      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="B65" s="9"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="10"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-    </row>
-    <row r="66" spans="2:13">
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="B66" s="9"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2484,12 +2418,12 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="10"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="1:13">
       <c r="B67" s="9"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2503,7 +2437,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="1:13">
       <c r="B68" s="9"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2517,7 +2451,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="1:13">
       <c r="B69" s="9"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2531,7 +2465,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="1:13">
       <c r="B70" s="9"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2545,7 +2479,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="1:13">
       <c r="B71" s="9"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2559,7 +2493,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="1:13">
       <c r="B72" s="9"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2573,7 +2507,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="1:13">
       <c r="B73" s="9"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2587,7 +2521,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="1:13">
       <c r="B74" s="9"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2601,7 +2535,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="1:13">
       <c r="B75" s="9"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2615,7 +2549,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="1:13">
       <c r="B76" s="9"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2629,7 +2563,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="1:13">
       <c r="B77" s="9"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2643,7 +2577,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="1:13">
       <c r="B78" s="9"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2657,7 +2591,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="1:13">
       <c r="B79" s="9"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2671,7 +2605,8 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="1:13">
+      <c r="A80" s="1"/>
       <c r="B80" s="9"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2682,8 +2617,6 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1"/>
@@ -2818,7 +2751,7 @@
     <row r="91" spans="1:11">
       <c r="A91" s="1"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2831,7 +2764,7 @@
     <row r="92" spans="1:11">
       <c r="A92" s="1"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="6"/>
+      <c r="C92" s="9"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2839,7 +2772,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1"/>
@@ -2848,32 +2781,32 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="7"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="8"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -2883,7 +2816,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -2913,7 +2846,7 @@
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="8"/>
+      <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -2923,9 +2856,9 @@
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -3036,26 +2969,12 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H22:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3069,16 +2988,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>